--- a/KPI.xlsx
+++ b/KPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanna.Megaouel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3918ED-7DB3-4AE6-8369-F24A70805F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06695B23-413A-4E10-9B76-C2DE1A7C9CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28920" yWindow="945" windowWidth="21600" windowHeight="11235" xr2:uid="{0673BA69-411E-4F5B-9E86-EEB2E50B32D5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0673BA69-411E-4F5B-9E86-EEB2E50B32D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Player signature date</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>NEIL</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -474,220 +477,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC62D164-FD53-4322-BE91-BAC2AF2C32B9}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="1" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>23</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2025</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2023</v>
       </c>
-      <c r="E2">
-        <f>C2-D2</f>
+      <c r="F2">
+        <f>D2-E2</f>
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>500</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>600</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>60</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>90</v>
       </c>
-      <c r="J2" s="2">
-        <f>F2/G2*100</f>
+      <c r="K2" s="2">
+        <f>G2/H2*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="K2" s="2">
-        <f>(F2+H2)/(G2+I2)*100</f>
+      <c r="L2" s="2">
+        <f>(G2+I2)/(H2+J2)*100</f>
         <v>81.159420289855078</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
         <v>21</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2025</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2020</v>
       </c>
-      <c r="E3">
-        <f>C3-D3</f>
+      <c r="F3">
+        <f>D3-E3</f>
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>30</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>600</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>90</v>
       </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J5" si="0">F3/G3*100</f>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3" si="0">G3/H3*100</f>
         <v>5</v>
       </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K5" si="1">(F3+H3)/(G3+I3)*100</f>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L5" si="1">(G3+I3)/(H3+J3)*100</f>
         <v>4.3478260869565215</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
         <v>22</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2025</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2024</v>
       </c>
-      <c r="E4">
-        <f>C4-D4</f>
+      <c r="F4">
+        <f>D4-E4</f>
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>600</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>90</v>
       </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
       <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>23</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2025</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2024</v>
       </c>
-      <c r="E5">
-        <f>C5-D5</f>
+      <c r="F5">
+        <f>D5-E5</f>
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>600</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>90</v>
       </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
       <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1</v>
       </c>
     </row>

--- a/KPI.xlsx
+++ b/KPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanna.Megaouel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6219C1-7C91-45EC-A27A-CC14B4603364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF7D554-1C25-4578-89B1-3F032FD719AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1668" yWindow="1200" windowWidth="20124" windowHeight="10512" xr2:uid="{0673BA69-411E-4F5B-9E86-EEB2E50B32D5}"/>
+    <workbookView xWindow="29490" yWindow="870" windowWidth="17055" windowHeight="11040" xr2:uid="{0673BA69-411E-4F5B-9E86-EEB2E50B32D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I2">
         <v>90</v>
@@ -686,7 +686,7 @@
       </c>
       <c r="L2" s="1">
         <f>(G2+I2)/(H2+J2)*100</f>
-        <v>11.111111111111111</v>
+        <v>10</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="H3">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -725,12 +725,12 @@
         <v>90</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K37" si="1">G3/H3*100</f>
+        <f t="shared" ref="K3:K36" si="1">G3/H3*100</f>
         <v>100</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L5" si="2">(G3+I3)/(H3+J3)*100</f>
-        <v>88.888888888888886</v>
+        <v>90</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -843,11 +843,11 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <f>43%*H6</f>
-        <v>309.60000000000002</v>
+        <f>49%*H6</f>
+        <v>396.9</v>
       </c>
       <c r="H6">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -857,11 +857,11 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" si="1"/>
-        <v>43.000000000000007</v>
+        <v>49</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ref="L6:L37" si="3">(G6+I6)/(H6+J6)*100</f>
-        <v>38.222222222222221</v>
+        <v>44.099999999999994</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -888,11 +888,11 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <f>33%*H7</f>
-        <v>237.60000000000002</v>
+        <f>82%*H7</f>
+        <v>664.19999999999993</v>
       </c>
       <c r="H7">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -902,11 +902,11 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="3"/>
-        <v>29.333333333333332</v>
+        <v>73.799999999999983</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1154,11 +1154,11 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f>55%*H13</f>
-        <v>396.00000000000006</v>
+        <f>60%*H13</f>
+        <v>486</v>
       </c>
       <c r="H13">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1168,11 +1168,11 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="1"/>
-        <v>55.000000000000007</v>
+        <v>60</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="3"/>
-        <v>48.8888888888889</v>
+        <v>54</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1199,11 +1199,11 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f>18%*H14</f>
+        <f>16%*H14</f>
         <v>129.6</v>
       </c>
       <c r="H14">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I14">
         <v>90</v>
@@ -1213,11 +1213,11 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="3"/>
-        <v>27.111111111111107</v>
+        <v>24.4</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1288,11 +1288,11 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <f>16%*H16</f>
-        <v>115.2</v>
+        <f>30%*H16</f>
+        <v>243</v>
       </c>
       <c r="H16">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1302,11 +1302,11 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="3"/>
-        <v>14.222222222222221</v>
+        <v>27</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1333,11 +1333,11 @@
         <v>3</v>
       </c>
       <c r="G17">
-        <f>98%*H17</f>
-        <v>705.6</v>
+        <f>99%*H17</f>
+        <v>801.9</v>
       </c>
       <c r="H17">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1347,11 +1347,11 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="3"/>
-        <v>87.111111111111114</v>
+        <v>89.1</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1378,11 +1378,11 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <f>86%*H18</f>
-        <v>619.20000000000005</v>
+        <f>88%*H18</f>
+        <v>712.8</v>
       </c>
       <c r="H18">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I18">
         <f>87%*90</f>
@@ -1393,11 +1393,11 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" si="1"/>
-        <v>86.000000000000014</v>
+        <v>87.999999999999986</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="3"/>
-        <v>86.111111111111114</v>
+        <v>87.899999999999991</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1469,10 +1469,10 @@
       </c>
       <c r="G20">
         <f>100%*H20</f>
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="H20">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="L20" s="1">
         <f t="shared" si="3"/>
-        <v>88.888888888888886</v>
+        <v>90</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1513,11 +1513,11 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <f>48%*H21</f>
-        <v>345.59999999999997</v>
+        <f>43%*H21</f>
+        <v>348.3</v>
       </c>
       <c r="H21">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" si="1"/>
-        <v>47.999999999999993</v>
+        <v>43</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="3"/>
-        <v>42.666666666666664</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -1558,11 +1558,11 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <f>65%*H22</f>
-        <v>468</v>
+        <f>67%*H22</f>
+        <v>542.70000000000005</v>
       </c>
       <c r="H22">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I22">
         <v>90</v>
@@ -1572,11 +1572,11 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="3"/>
-        <v>68.888888888888886</v>
+        <v>70.300000000000011</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -1604,10 +1604,10 @@
       </c>
       <c r="G23">
         <f>99%*H23</f>
-        <v>712.8</v>
+        <v>801.9</v>
       </c>
       <c r="H23">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="L23" s="1">
         <f t="shared" si="3"/>
-        <v>87.999999999999986</v>
+        <v>89.1</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -1649,10 +1649,10 @@
       </c>
       <c r="G24">
         <f>0.5%*H24</f>
-        <v>3.6</v>
+        <v>4.05</v>
       </c>
       <c r="H24">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I24">
         <v>90</v>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="L24" s="1">
         <f t="shared" si="3"/>
-        <v>11.555555555555555</v>
+        <v>10.45</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1781,11 +1781,11 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <f>24%*H27</f>
-        <v>172.79999999999998</v>
+        <f>23%*H27</f>
+        <v>186.3</v>
       </c>
       <c r="H27">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I27">
         <v>90</v>
@@ -1795,11 +1795,11 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" si="1"/>
-        <v>23.999999999999996</v>
+        <v>23</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="3"/>
-        <v>32.444444444444436</v>
+        <v>30.7</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I28">
         <v>90</v>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="L28" s="1">
         <f t="shared" si="3"/>
-        <v>11.111111111111111</v>
+        <v>10</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -1871,11 +1871,11 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <f>38%*H29</f>
-        <v>273.60000000000002</v>
+        <f>34%*H29</f>
+        <v>275.40000000000003</v>
       </c>
       <c r="H29">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1885,11 +1885,11 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="3"/>
-        <v>33.777777777777779</v>
+        <v>30.600000000000005</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1960,11 +1960,11 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <f>74%*H31</f>
-        <v>532.79999999999995</v>
+        <f>69%*H31</f>
+        <v>558.9</v>
       </c>
       <c r="H31">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="3"/>
-        <v>65.777777777777771</v>
+        <v>62.1</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2005,11 +2005,11 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <f>34%*H32</f>
-        <v>244.8</v>
+        <f>40%*H32</f>
+        <v>324</v>
       </c>
       <c r="H32">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2019,11 +2019,11 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="3"/>
-        <v>30.222222222222221</v>
+        <v>36</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2095,10 +2095,10 @@
       </c>
       <c r="G34">
         <f>13%*H34</f>
-        <v>93.600000000000009</v>
+        <v>105.3</v>
       </c>
       <c r="H34">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="L34" s="1">
         <f t="shared" si="3"/>
-        <v>11.555555555555557</v>
+        <v>11.7</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -2139,11 +2139,11 @@
         <v>2</v>
       </c>
       <c r="G35">
-        <f>36%*H35</f>
+        <f>32%*H35</f>
         <v>259.2</v>
       </c>
       <c r="H35">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2153,11 +2153,11 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -2184,11 +2184,11 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <f>63%*H36</f>
-        <v>453.6</v>
+        <f>66%*H36</f>
+        <v>534.6</v>
       </c>
       <c r="H36">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I36">
         <f>87%*J36</f>
@@ -2199,11 +2199,11 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="3"/>
-        <v>65.666666666666657</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I37">
         <v>0</v>
